--- a/results_v1/res_trafo/loading_percent.xlsx
+++ b/results_v1/res_trafo/loading_percent.xlsx
@@ -391,16 +391,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42.78847717394176</v>
+        <v>44.81900527771997</v>
       </c>
       <c r="C2">
-        <v>56.00364392451343</v>
+        <v>67.48512916196228</v>
       </c>
       <c r="D2">
-        <v>40.0663706469126</v>
+        <v>45.43254564532422</v>
       </c>
       <c r="E2">
-        <v>37.09516674611015</v>
+        <v>46.25622474463371</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,16 +408,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40.87493659913044</v>
+        <v>40.58157708261509</v>
       </c>
       <c r="C3">
-        <v>57.31559906942133</v>
+        <v>56.77842103231085</v>
       </c>
       <c r="D3">
-        <v>41.77669955830343</v>
+        <v>42.14863178152135</v>
       </c>
       <c r="E3">
-        <v>37.57678728363048</v>
+        <v>37.99695507704574</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,16 +425,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36.47280185334073</v>
+        <v>37.69290759741596</v>
       </c>
       <c r="C4">
-        <v>50.87538186048193</v>
+        <v>47.86461112796479</v>
       </c>
       <c r="D4">
-        <v>37.32910986537084</v>
+        <v>38.33909189961298</v>
       </c>
       <c r="E4">
-        <v>34.21897405716899</v>
+        <v>33.82721019586372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,16 +442,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>38.53927677826899</v>
+        <v>41.02145875526249</v>
       </c>
       <c r="C5">
-        <v>53.40041278191424</v>
+        <v>60.57630697850971</v>
       </c>
       <c r="D5">
-        <v>39.89398826670548</v>
+        <v>38.73492241877653</v>
       </c>
       <c r="E5">
-        <v>37.17867956301535</v>
+        <v>37.84513966655978</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,16 +459,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>42.36298797400529</v>
+        <v>35.51839016602241</v>
       </c>
       <c r="C6">
-        <v>68.73849007532922</v>
+        <v>48.78736481654452</v>
       </c>
       <c r="D6">
-        <v>43.83311319676621</v>
+        <v>34.10571954396575</v>
       </c>
       <c r="E6">
-        <v>42.32585669058516</v>
+        <v>34.27994248766033</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -476,16 +476,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>38.83653048582084</v>
+        <v>42.03427826232107</v>
       </c>
       <c r="C7">
-        <v>52.02135665443402</v>
+        <v>65.09595354399383</v>
       </c>
       <c r="D7">
-        <v>38.91014645700146</v>
+        <v>42.59857579875421</v>
       </c>
       <c r="E7">
-        <v>37.61518171243476</v>
+        <v>44.35846393787346</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -493,16 +493,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46.19731297586551</v>
+        <v>48.28704765183051</v>
       </c>
       <c r="C8">
-        <v>68.83330315609987</v>
+        <v>53.95647471568238</v>
       </c>
       <c r="D8">
-        <v>45.83629364642676</v>
+        <v>44.00565170565165</v>
       </c>
       <c r="E8">
-        <v>42.93423331667207</v>
+        <v>39.81439224763541</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -510,16 +510,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>56.44265908736988</v>
+        <v>55.69663217183036</v>
       </c>
       <c r="C9">
-        <v>73.71985430702885</v>
+        <v>87.22944589831501</v>
       </c>
       <c r="D9">
-        <v>52.41108644887316</v>
+        <v>58.04962705329439</v>
       </c>
       <c r="E9">
-        <v>47.55241794960594</v>
+        <v>59.92591249824628</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,16 +527,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56.42554829068169</v>
+        <v>51.99542657337399</v>
       </c>
       <c r="C10">
-        <v>76.61803733747749</v>
+        <v>66.3672458970489</v>
       </c>
       <c r="D10">
-        <v>53.25408244351698</v>
+        <v>46.09584638853585</v>
       </c>
       <c r="E10">
-        <v>50.67443753697246</v>
+        <v>42.52043571425596</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -544,16 +544,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60.26088188541068</v>
+        <v>51.08254186131673</v>
       </c>
       <c r="C11">
-        <v>71.14646104227981</v>
+        <v>63.94453222094891</v>
       </c>
       <c r="D11">
-        <v>54.84762093224273</v>
+        <v>49.5026038059672</v>
       </c>
       <c r="E11">
-        <v>47.89384546361765</v>
+        <v>45.37788640399116</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,16 +561,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59.7965596271893</v>
+        <v>52.97319261834165</v>
       </c>
       <c r="C12">
-        <v>101.9278019578031</v>
+        <v>82.76975507625322</v>
       </c>
       <c r="D12">
-        <v>63.38851363598821</v>
+        <v>54.02707330280558</v>
       </c>
       <c r="E12">
-        <v>63.75844376607254</v>
+        <v>55.11175077904326</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,16 +578,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>49.84024310923404</v>
+        <v>47.79022649647829</v>
       </c>
       <c r="C13">
-        <v>76.18992566218125</v>
+        <v>63.79060733914389</v>
       </c>
       <c r="D13">
-        <v>52.85149244225437</v>
+        <v>49.13946691565363</v>
       </c>
       <c r="E13">
-        <v>54.47813961250038</v>
+        <v>47.9931797844159</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -595,16 +595,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>55.05081001989615</v>
+        <v>49.17138323577579</v>
       </c>
       <c r="C14">
-        <v>72.83000471420623</v>
+        <v>79.77343213713802</v>
       </c>
       <c r="D14">
-        <v>51.50218330595931</v>
+        <v>49.42116098350476</v>
       </c>
       <c r="E14">
-        <v>50.7964850575774</v>
+        <v>49.41778922454495</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -612,16 +612,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>50.50397775417056</v>
+        <v>56.36806047955777</v>
       </c>
       <c r="C15">
-        <v>62.00142546076929</v>
+        <v>73.80282248263701</v>
       </c>
       <c r="D15">
-        <v>46.71274063386772</v>
+        <v>53.10224440538901</v>
       </c>
       <c r="E15">
-        <v>45.00417763779759</v>
+        <v>48.54427525792693</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -629,16 +629,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>54.25188443772713</v>
+        <v>56.7255470439389</v>
       </c>
       <c r="C16">
-        <v>73.86501254555998</v>
+        <v>67.98821702350689</v>
       </c>
       <c r="D16">
-        <v>56.87876615241396</v>
+        <v>49.62702145427998</v>
       </c>
       <c r="E16">
-        <v>50.61276523245013</v>
+        <v>48.95696082581081</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,16 +646,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>50.07244867582856</v>
+        <v>49.94993557151787</v>
       </c>
       <c r="C17">
-        <v>65.77156375005575</v>
+        <v>62.03588690423293</v>
       </c>
       <c r="D17">
-        <v>44.16982942929238</v>
+        <v>52.4750580016895</v>
       </c>
       <c r="E17">
-        <v>40.79836350583314</v>
+        <v>45.69252836549893</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -663,16 +663,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>51.74410351635888</v>
+        <v>55.15649130001118</v>
       </c>
       <c r="C18">
-        <v>59.11485308901748</v>
+        <v>70.10682370632563</v>
       </c>
       <c r="D18">
-        <v>46.41070418140779</v>
+        <v>54.47488584896931</v>
       </c>
       <c r="E18">
-        <v>43.43666280297151</v>
+        <v>49.92501485015543</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -680,16 +680,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>54.55334270419663</v>
+        <v>58.38879727190489</v>
       </c>
       <c r="C19">
-        <v>84.29135592974745</v>
+        <v>72.45688225674432</v>
       </c>
       <c r="D19">
-        <v>54.14979224735779</v>
+        <v>54.18595275990464</v>
       </c>
       <c r="E19">
-        <v>53.7418721249437</v>
+        <v>48.30234550305855</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,16 +697,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>55.83918306126443</v>
+        <v>54.93717402888402</v>
       </c>
       <c r="C20">
-        <v>68.39166042388378</v>
+        <v>69.99273998054305</v>
       </c>
       <c r="D20">
-        <v>51.9017976442782</v>
+        <v>47.98087592876563</v>
       </c>
       <c r="E20">
-        <v>46.77554306795051</v>
+        <v>44.67369817758492</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,16 +714,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59.41452172136547</v>
+        <v>64.2600980207266</v>
       </c>
       <c r="C21">
-        <v>71.24596991944834</v>
+        <v>83.06417482237993</v>
       </c>
       <c r="D21">
-        <v>59.42264801479576</v>
+        <v>63.8112432849707</v>
       </c>
       <c r="E21">
-        <v>52.80306619313158</v>
+        <v>60.21906093872285</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -731,16 +731,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>59.82105106388745</v>
+        <v>60.81789958408284</v>
       </c>
       <c r="C22">
-        <v>82.08206099174188</v>
+        <v>69.30328461111476</v>
       </c>
       <c r="D22">
-        <v>61.88933293957697</v>
+        <v>58.25187190260978</v>
       </c>
       <c r="E22">
-        <v>57.06609087926076</v>
+        <v>50.81854977561427</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -748,16 +748,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>54.46255426536489</v>
+        <v>56.18671387896534</v>
       </c>
       <c r="C23">
-        <v>75.92815533482968</v>
+        <v>74.11998091484438</v>
       </c>
       <c r="D23">
-        <v>48.49753325583265</v>
+        <v>53.62855248876265</v>
       </c>
       <c r="E23">
-        <v>48.01573676929374</v>
+        <v>46.68711688512452</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -765,16 +765,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>54.47384286445194</v>
+        <v>57.71728567332256</v>
       </c>
       <c r="C24">
-        <v>64.61497526820116</v>
+        <v>71.20817947234055</v>
       </c>
       <c r="D24">
-        <v>53.29785823028171</v>
+        <v>53.10079189191059</v>
       </c>
       <c r="E24">
-        <v>46.96556902454659</v>
+        <v>47.01976901432131</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -782,16 +782,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>45.36057436253383</v>
+        <v>49.24597437746264</v>
       </c>
       <c r="C25">
-        <v>57.8064718294835</v>
+        <v>75.38723179884992</v>
       </c>
       <c r="D25">
-        <v>41.17894848250721</v>
+        <v>50.00243075481507</v>
       </c>
       <c r="E25">
-        <v>36.67389159630996</v>
+        <v>48.87866279329437</v>
       </c>
     </row>
   </sheetData>
